--- a/reports/usuarios/usuarios.xlsx
+++ b/reports/usuarios/usuarios.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t>Fecha de creación</t>
+  </si>
   <si>
     <t>Apellido</t>
   </si>
@@ -31,6 +34,9 @@
     <t>estado</t>
   </si>
   <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -46,36 +52,27 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>ANDRADA</t>
-  </si>
-  <si>
-    <t>ASTRI EDITH</t>
-  </si>
-  <si>
-    <t>aandrada</t>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>YAMIL</t>
+  </si>
+  <si>
+    <t>yfet</t>
   </si>
   <si>
     <t>Consulta</t>
   </si>
   <si>
-    <t>ASTRIANDRADA@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
-  </si>
-  <si>
-    <t>FET</t>
-  </si>
-  <si>
-    <t>YAMIL</t>
-  </si>
-  <si>
-    <t>yfet</t>
-  </si>
-  <si>
     <t>FETYAMIL@GMAIL.COM</t>
   </si>
   <si>
+    <t>09/04/2021</t>
+  </si>
+  <si>
     <t>MORAN</t>
   </si>
   <si>
@@ -98,18 +95,6 @@
   </si>
   <si>
     <t>ING.LUCASMORENO@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>TESTEANDO</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>TESTING@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -490,17 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,125 +505,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/reports/usuarios/usuarios.xlsx
+++ b/reports/usuarios/usuarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Fecha de creación</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>08/03/2021</t>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
   </si>
   <si>
     <t>ADMIN</t>
@@ -52,37 +52,7 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>FET</t>
-  </si>
-  <si>
-    <t>YAMIL</t>
-  </si>
-  <si>
-    <t>yfet</t>
-  </si>
-  <si>
-    <t>Consulta</t>
-  </si>
-  <si>
-    <t>FETYAMIL@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>PATRICIO</t>
-  </si>
-  <si>
-    <t>pmoran</t>
-  </si>
-  <si>
-    <t>PATRICIOMORAN@GMAIL.COM</t>
+    <t>09/04/2022</t>
   </si>
   <si>
     <t>MORENO</t>
@@ -475,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
@@ -546,58 +516,12 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>
